--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="StageNum" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StageNum" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Num</t>
   </si>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>4,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>enemyHP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>castleHP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -135,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -244,13 +252,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +296,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -566,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -641,10 +663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -652,70 +674,96 @@
     <col min="2" max="2" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -734,10 +782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="StageCoordinate" sheetId="2" r:id="rId2"/>
     <sheet name="범례" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,7 +666,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pj\9.29\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3F310-FEAE-4891-BD91-183BA8510A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="1695" yWindow="2985" windowWidth="22890" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageNum" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Num</t>
   </si>
@@ -41,9 +42,6 @@
   </si>
   <si>
     <t>stage</t>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,-1,1,-1,-1,-1,4,-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1</t>
   </si>
   <si>
     <t>-1,-1,-1,-1,-1,-1,2,-1,-1,4,-1,-1,-1,1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1</t>
@@ -100,13 +98,37 @@
   <si>
     <t>castleHP</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,-1,-1,-1,1,-1,-1,-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1,1,-1,2,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1,1,-1,2,-1,3,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,4,-1,-1,0,-1,3,-1,-1,-1,-1,-1,1,-1,-1,2,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1,1,-1,2,-1,4,-1,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,4,-1,-1,0,-1,-1,-1,-1,-1,-1,-1,1,-1,-1,-1,3,-1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>4,-1,-1,-1,-1,-1,-1,0,-1,-1,1,-1,-1,-1,-1,-1,-1,-1,2,-1,-1,0,-1,-1,-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,16 +156,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EBF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -263,13 +303,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,7 +352,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,6 +360,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,11 +646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,11 +710,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -662,11 +784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,84 +804,152 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>300</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>400</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2500</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2500</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2500</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -768,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -783,7 +973,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="1"/>
@@ -792,10 +982,10 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -803,7 +993,7 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
         <v>-1</v>
@@ -811,12 +1001,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -824,12 +1014,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -837,12 +1027,12 @@
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -850,12 +1040,12 @@
       <c r="C6" s="1"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
@@ -863,12 +1053,12 @@
       <c r="C7" s="1"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
@@ -876,7 +1066,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="7"/>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -5,29 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pj\9.29\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\AlgorithmDefense-main\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3F310-FEAE-4891-BD91-183BA8510A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180C064F-FB29-450F-ACDC-9D7F50155C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="2985" windowWidth="22890" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageNum" sheetId="1" r:id="rId1"/>
     <sheet name="StageCoordinate" sheetId="2" r:id="rId2"/>
     <sheet name="범례" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Num</t>
   </si>
@@ -42,12 +50,6 @@
   </si>
   <si>
     <t>stage</t>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,-1,-1,2,-1,-1,4,-1,-1,-1,1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>4,-1,-1,-1,-1,-1,-1,0,-1,3,1,-1,-1,2,-1,-1,-1,-1,-1,-1,-1,-1,-1,0,-1</t>
   </si>
   <si>
     <t>테이블 범례</t>
@@ -100,35 +102,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,-1,-1,-1,1,-1,-1,-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1,1,-1,2,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1,1,-1,2,-1,3,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,4,-1,-1,0,-1,3,-1,-1,-1,-1,-1,1,-1,-1,2,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1,1,-1,2,-1,4,-1,-1,-1,0,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,4,-1,-1,0,-1,-1,-1,-1,-1,-1,-1,1,-1,-1,-1,3,-1,0,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>4,-1,-1,-1,-1,-1,-1,0,-1,-1,1,-1,-1,-1,-1,-1,-1,-1,2,-1,-1,0,-1,-1,-1</t>
+    <t>-1,-1,-1,-1,-1,-1,-1,1,-1,4,-1,-1,-1,-1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,-1,-1,2,-1,-1,4,-1,-1,-1,1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,4,-1,-1,0,-1,3,1,-1,-1,2,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,4,-1,-1,-1,-1,-1,-1,-1,0,-1,-1,1,-1,-1,-1,3,-1,0,-1,-1,-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,3,-1,-1,0,-1,-1,4,-1,-1,2,-1,-1,1,-1,-1,-1,-1,-1,-1,0,-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,31 +157,37 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="ar"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9EBF5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -305,17 +309,28 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -324,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,20 +367,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,13 +685,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -677,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -688,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -699,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -710,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -721,60 +757,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="b">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -787,168 +793,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C2" s="15">
+        <v>500</v>
+      </c>
+      <c r="D2" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="C3" s="15">
+        <v>700</v>
+      </c>
+      <c r="D3" s="16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C4" s="16">
+        <v>700</v>
+      </c>
+      <c r="D4" s="16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16">
+        <v>700</v>
+      </c>
+      <c r="D5" s="16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16">
         <v>1000</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D6" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2500</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2500</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2500</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2500</v>
-      </c>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -965,35 +923,35 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>-1</v>
@@ -1001,12 +959,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -1014,12 +972,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -1027,12 +985,12 @@
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -1040,12 +998,12 @@
       <c r="C6" s="1"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
@@ -1053,12 +1011,12 @@
       <c r="C7" s="1"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
@@ -1066,20 +1024,21 @@
       <c r="C8" s="1"/>
       <c r="D8" s="7"/>
       <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\AlgorithmDefense-main\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180C064F-FB29-450F-ACDC-9D7F50155C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F473474-A0B9-4F45-AACB-79C9B13155C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,7 +794,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -849,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="16">
         <v>700</v>
@@ -863,7 +863,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="16">
         <v>700</v>

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\AlgorithmDefense-main\AlgorithmDefense\Assets\ExcelImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F473474-A0B9-4F45-AACB-79C9B13155C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB4FA5-E378-4C0F-ABBE-21B910AF3FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="2985" windowWidth="22890" windowHeight="11010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageNum" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,7 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -376,26 +376,20 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -794,7 +788,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -806,10 +800,10 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -817,80 +811,80 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15">
-        <v>500</v>
-      </c>
-      <c r="D2" s="15">
-        <v>500</v>
+      <c r="C2" s="14">
+        <v>99999</v>
+      </c>
+      <c r="D2" s="14">
+        <v>99999</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>700</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>700</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>700</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="18">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>1000</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
@@ -905,7 +899,7 @@
       <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="11"/>
     </row>
   </sheetData>
@@ -930,10 +924,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB4FA5-E378-4C0F-ABBE-21B910AF3FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD09154D-3992-472F-BB0F-78C5FBA404F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1695" yWindow="2985" windowWidth="22890" windowHeight="11010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -818,10 +818,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="14">
-        <v>99999</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="14">
-        <v>99999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -832,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="14">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="15">
-        <v>700</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -846,10 +846,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="15">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D4" s="15">
-        <v>700</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -860,10 +860,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="15">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="D5" s="15">
-        <v>700</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -874,10 +874,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="15">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="15">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1">

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\AlgorithmDefense-main\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD09154D-3992-472F-BB0F-78C5FBA404F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40C06A-610A-4148-AB97-3525204DA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="2985" windowWidth="22890" windowHeight="11010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1965" windowWidth="14025" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageNum" sheetId="1" r:id="rId1"/>
@@ -110,15 +110,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>-1,-1,-1,-1,4,-1,-1,0,-1,3,1,-1,-1,2,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>-1,-1,-1,-1,4,-1,-1,-1,-1,-1,-1,-1,0,-1,-1,1,-1,-1,-1,3,-1,0,-1,-1,-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>-1,-1,-1,-1,3,-1,-1,0,-1,-1,4,-1,-1,2,-1,-1,1,-1,-1,-1,-1,-1,-1,0,-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,-1,2,-1,1,-1,-1,-1,-1,-1,-1,-1,0,-1,0,-1,3,-1,4,-1,-1,-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +788,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -818,10 +818,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -832,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="14">
-        <v>3000</v>
-      </c>
-      <c r="D3" s="15">
-        <v>3000</v>
+        <v>1000</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -843,13 +843,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D4" s="15">
-        <v>3000</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -857,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="15">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D5" s="15">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -871,13 +871,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="15">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="15">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1">

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\AlgorithmDefense-main\AlgorithmDefense\Assets\ExcelImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40C06A-610A-4148-AB97-3525204DA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD09154D-3992-472F-BB0F-78C5FBA404F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1965" windowWidth="14025" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="2985" windowWidth="22890" windowHeight="11010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageNum" sheetId="1" r:id="rId1"/>
@@ -110,15 +110,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>-1,-1,-1,-1,4,-1,-1,0,-1,3,1,-1,-1,2,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>-1,-1,-1,-1,4,-1,-1,-1,-1,-1,-1,-1,0,-1,-1,1,-1,-1,-1,3,-1,0,-1,-1,-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>-1,-1,-1,-1,3,-1,-1,0,-1,-1,4,-1,-1,2,-1,-1,1,-1,-1,-1,-1,-1,-1,0,-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,-1,2,-1,1,-1,-1,-1,-1,-1,-1,-1,0,-1,0,-1,3,-1,4,-1,-1,-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +788,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -818,10 +818,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -832,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1000</v>
+        <v>3000</v>
+      </c>
+      <c r="D3" s="15">
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -843,13 +843,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1000</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -857,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="15">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D5" s="15">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -871,13 +871,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="15">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="15">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1">

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\AlgorithmDefense-main\AlgorithmDefense\Assets\ExcelImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pj\Test\AlgorithmDefense\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40C06A-610A-4148-AB97-3525204DA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1965" windowWidth="14025" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1965" windowWidth="14025" windowHeight="11280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StageNum" sheetId="1" r:id="rId1"/>
     <sheet name="StageCoordinate" sheetId="2" r:id="rId2"/>
     <sheet name="범례" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -158,6 +157,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ar"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -676,7 +677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -784,11 +785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -910,11 +911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
+++ b/AlgorithmDefense/Assets/ExcelImporter/StageDataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pj\Test\AlgorithmDefense\AlgorithmDefense\AlgorithmDefense\Assets\ExcelImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\AlgorithmDefense-main\AlgorithmDefense\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB558672-9EDF-4BB7-9817-3B56BEA7B021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1965" windowWidth="14025" windowHeight="11280" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageNum" sheetId="1" r:id="rId1"/>
@@ -21,14 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -105,26 +98,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>-1,-1,-1,-1,-1,-1,2,-1,-1,4,-1,-1,-1,1,-1,-1,-1,0,-1,-1,-1,-1,-1,-1,-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,-1,-1,-1,4,-1,-1,-1,-1,-1,-1,-1,0,-1,-1,1,-1,-1,-1,3,-1,0,-1,-1,-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>-1,-1,-1,-1,3,-1,-1,0,-1,-1,4,-1,-1,2,-1,-1,1,-1,-1,-1,-1,-1,-1,0,-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>-1,-1,-1,-1,-1,2,-1,1,-1,-1,-1,-1,-1,-1,-1,0,-1,0,-1,3,-1,4,-1,-1,-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,4,-1,-1,0,-1,-1,-1,-1,-1,-1,-1,1,-1,-1,-1,3,-1,0,-1,-1,-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,-1,-1,2,-1,-1,4,-1,-1,0,-1,-1,-1,-1,-1,1,-1,-1,-1,-1,-1,-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -677,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -785,11 +778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -819,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -830,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D3" s="14">
         <v>1000</v>
@@ -844,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="14">
         <v>1000</v>
@@ -858,13 +851,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="15">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="D5" s="15">
-        <v>2000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -872,13 +865,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="15">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="D6" s="15">
-        <v>2000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -911,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
